--- a/SurfingkeysMappings.xlsx
+++ b/SurfingkeysMappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gh\syon\SurfingkeysSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA32F2-926D-4522-BDEE-E9AB3125A3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B5BF8A-8840-4F25-8C87-D47CB3634F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="0" windowWidth="30440" windowHeight="20970" activeTab="2" xr2:uid="{B7106501-B18C-4948-BCC7-A817C0AFCF81}"/>
+    <workbookView xWindow="6190" yWindow="0" windowWidth="30440" windowHeight="20970" activeTab="1" xr2:uid="{B7106501-B18C-4948-BCC7-A817C0AFCF81}"/>
   </bookViews>
   <sheets>
     <sheet name="翻訳" sheetId="1" r:id="rId1"/>
@@ -27405,9 +27405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C26A4F-3CD6-46B6-B0B7-70AC9865865A}">
   <dimension ref="B1:AK258"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I257"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -56350,7 +56350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED2EFCB-52D1-4DF1-86D6-C2FB7005D69F}">
   <dimension ref="C1:I258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="15"/>
   <cols>
